--- a/season_stats_all_teams23.xlsx
+++ b/season_stats_all_teams23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Documents/Data_projects/fcc_project/garyvsmls/season23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E6B139-30B9-5D4E-9C42-D4F95D257553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6354D542-7FBD-D040-ADD8-30C0C1F895E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="11620" windowHeight="18940" xr2:uid="{B7DBC7D5-DC0A-1748-849A-5E82CDD26843}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="16500" windowHeight="15800" xr2:uid="{B7DBC7D5-DC0A-1748-849A-5E82CDD26843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Squad</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Gls_2</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0702EE27-3752-3340-B99A-98878E663F02}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +584,7 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,8 +681,11 @@
       <c r="AF1" t="s">
         <v>17</v>
       </c>
+      <c r="AG1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -776,8 +782,11 @@
       <c r="AF2">
         <v>2.41</v>
       </c>
+      <c r="AG2">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="AF3">
         <v>2.15</v>
       </c>
+      <c r="AG3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -972,8 +984,11 @@
       <c r="AF4">
         <v>1.87</v>
       </c>
+      <c r="AG4">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1070,8 +1085,11 @@
       <c r="AF5">
         <v>1.76</v>
       </c>
+      <c r="AG5">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1168,8 +1186,11 @@
       <c r="AF6">
         <v>1.9</v>
       </c>
+      <c r="AG6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1266,8 +1287,11 @@
       <c r="AF7">
         <v>1.87</v>
       </c>
+      <c r="AG7">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1364,8 +1388,11 @@
       <c r="AF8">
         <v>2.79</v>
       </c>
+      <c r="AG8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1462,8 +1489,11 @@
       <c r="AF9">
         <v>2.2799999999999998</v>
       </c>
+      <c r="AG9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1560,8 +1590,11 @@
       <c r="AF10">
         <v>2.12</v>
       </c>
+      <c r="AG10">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1658,8 +1691,11 @@
       <c r="AF11">
         <v>2.61</v>
       </c>
+      <c r="AG11">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1756,8 +1792,11 @@
       <c r="AF12">
         <v>2</v>
       </c>
+      <c r="AG12">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1854,8 +1893,11 @@
       <c r="AF13">
         <v>1.72</v>
       </c>
+      <c r="AG13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1952,8 +1994,11 @@
       <c r="AF14">
         <v>2.5299999999999998</v>
       </c>
+      <c r="AG14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2050,8 +2095,11 @@
       <c r="AF15">
         <v>2.56</v>
       </c>
+      <c r="AG15">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2148,8 +2196,11 @@
       <c r="AF16">
         <v>2.58</v>
       </c>
+      <c r="AG16">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2246,8 +2297,11 @@
       <c r="AF17">
         <v>2.02</v>
       </c>
+      <c r="AG17">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2344,8 +2398,11 @@
       <c r="AF18">
         <v>2.04</v>
       </c>
+      <c r="AG18">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2442,8 +2499,11 @@
       <c r="AF19">
         <v>2.2000000000000002</v>
       </c>
+      <c r="AG19">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2540,8 +2600,11 @@
       <c r="AF20">
         <v>2.15</v>
       </c>
+      <c r="AG20">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2638,8 +2701,11 @@
       <c r="AF21">
         <v>2.0499999999999998</v>
       </c>
+      <c r="AG21">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2736,8 +2802,11 @@
       <c r="AF22">
         <v>2.15</v>
       </c>
+      <c r="AG22">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -2834,8 +2903,11 @@
       <c r="AF23">
         <v>2.06</v>
       </c>
+      <c r="AG23">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2932,8 +3004,11 @@
       <c r="AF24">
         <v>2.27</v>
       </c>
+      <c r="AG24">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3030,8 +3105,11 @@
       <c r="AF25">
         <v>2.0699999999999998</v>
       </c>
+      <c r="AG25">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3128,8 +3206,11 @@
       <c r="AF26">
         <v>2.44</v>
       </c>
+      <c r="AG26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3226,8 +3307,11 @@
       <c r="AF27">
         <v>1.91</v>
       </c>
+      <c r="AG27">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3324,8 +3408,11 @@
       <c r="AF28">
         <v>1.93</v>
       </c>
+      <c r="AG28">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3422,8 +3509,11 @@
       <c r="AF29">
         <v>1.61</v>
       </c>
+      <c r="AG29">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -3519,6 +3609,9 @@
       </c>
       <c r="AF30">
         <v>2.6</v>
+      </c>
+      <c r="AG30">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>

--- a/season_stats_all_teams23.xlsx
+++ b/season_stats_all_teams23.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiangentry/Documents/Data_projects/fcc_project/garyvsmls/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6354D542-7FBD-D040-ADD8-30C0C1F895E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123BD71-4D0E-C441-A8A5-5A32BC6D9DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="16500" windowHeight="15800" xr2:uid="{B7DBC7D5-DC0A-1748-849A-5E82CDD26843}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Squad</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Atlanta Utd</t>
   </si>
   <si>
-    <t>Austin</t>
-  </si>
-  <si>
     <t>CF Montréal</t>
   </si>
   <si>
@@ -119,36 +116,18 @@
     <t>Chicago Fire</t>
   </si>
   <si>
-    <t>Colorado Rapids</t>
-  </si>
-  <si>
     <t>Columbus Crew</t>
   </si>
   <si>
     <t>D.C. United</t>
   </si>
   <si>
-    <t>Dynamo FC</t>
-  </si>
-  <si>
     <t>FC Cincinnati</t>
   </si>
   <si>
-    <t>FC Dallas</t>
-  </si>
-  <si>
     <t>Inter Miami</t>
   </si>
   <si>
-    <t>LA Galaxy</t>
-  </si>
-  <si>
-    <t>Los Angeles FC</t>
-  </si>
-  <si>
-    <t>Minnesota Utd</t>
-  </si>
-  <si>
     <t>Nashville</t>
   </si>
   <si>
@@ -167,28 +146,7 @@
     <t>Philadelphia</t>
   </si>
   <si>
-    <t>Portland Timbers</t>
-  </si>
-  <si>
-    <t>Real Salt Lake</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Sporting KC</t>
-  </si>
-  <si>
-    <t>St. Louis</t>
-  </si>
-  <si>
     <t>Toronto FC</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
   </si>
   <si>
     <t>Num_Players</t>
@@ -572,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0702EE27-3752-3340-B99A-98878E663F02}">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:AG30"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -652,7 +610,7 @@
         <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
         <v>7</v>
@@ -682,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="AG1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -791,13 +749,13 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>27.9</v>
+        <v>24.4</v>
       </c>
       <c r="D3">
-        <v>51.2</v>
+        <v>48.3</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -812,76 +770,76 @@
         <v>34</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>2</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>42.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="R3">
-        <v>41</v>
+        <v>35.6</v>
       </c>
       <c r="S3">
-        <v>32.299999999999997</v>
+        <v>27.8</v>
       </c>
       <c r="T3">
-        <v>73.3</v>
+        <v>63.4</v>
       </c>
       <c r="U3">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="V3">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="W3">
-        <v>1.41</v>
+        <v>0.97</v>
       </c>
       <c r="X3">
-        <v>1.0900000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Y3">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="Z3">
-        <v>1.35</v>
+        <v>0.91</v>
       </c>
       <c r="AA3">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="AB3">
-        <v>1.25</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>0.82</v>
       </c>
       <c r="AD3">
-        <v>2.2000000000000002</v>
+        <v>1.93</v>
       </c>
       <c r="AE3">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="AF3">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="AG3">
         <v>2023</v>
@@ -892,13 +850,13 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>24.4</v>
+        <v>27.2</v>
       </c>
       <c r="D4">
-        <v>48.3</v>
+        <v>52.7</v>
       </c>
       <c r="E4">
         <v>34</v>
@@ -913,76 +871,76 @@
         <v>34</v>
       </c>
       <c r="I4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>37.799999999999997</v>
+        <v>37</v>
       </c>
       <c r="R4">
-        <v>35.6</v>
+        <v>33.1</v>
       </c>
       <c r="S4">
-        <v>27.8</v>
+        <v>26.9</v>
       </c>
       <c r="T4">
-        <v>63.4</v>
+        <v>60</v>
       </c>
       <c r="U4">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="V4">
-        <v>1265</v>
+        <v>1360</v>
       </c>
       <c r="W4">
+        <v>1.26</v>
+      </c>
+      <c r="X4">
+        <v>0.85</v>
+      </c>
+      <c r="Y4">
+        <v>2.12</v>
+      </c>
+      <c r="Z4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>1.97</v>
+      </c>
+      <c r="AB4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>0.79</v>
+      </c>
+      <c r="AD4">
+        <v>1.88</v>
+      </c>
+      <c r="AE4">
         <v>0.97</v>
       </c>
-      <c r="X4">
-        <v>0.65</v>
-      </c>
-      <c r="Y4">
-        <v>1.62</v>
-      </c>
-      <c r="Z4">
-        <v>0.91</v>
-      </c>
-      <c r="AA4">
-        <v>1.56</v>
-      </c>
-      <c r="AB4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="AC4">
-        <v>0.82</v>
-      </c>
-      <c r="AD4">
-        <v>1.93</v>
-      </c>
-      <c r="AE4">
-        <v>1.05</v>
-      </c>
       <c r="AF4">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AG4">
         <v>2023</v>
@@ -993,13 +951,13 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5">
-        <v>27.2</v>
+        <v>26.5</v>
       </c>
       <c r="D5">
-        <v>52.7</v>
+        <v>46.1</v>
       </c>
       <c r="E5">
         <v>34</v>
@@ -1014,76 +972,76 @@
         <v>34</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>29</v>
       </c>
       <c r="K5">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>37</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="R5">
-        <v>33.1</v>
+        <v>36.6</v>
       </c>
       <c r="S5">
-        <v>26.9</v>
+        <v>28.1</v>
       </c>
       <c r="T5">
-        <v>60</v>
+        <v>64.8</v>
       </c>
       <c r="U5">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="V5">
-        <v>1360</v>
+        <v>1217</v>
       </c>
       <c r="W5">
-        <v>1.26</v>
+        <v>1.06</v>
       </c>
       <c r="X5">
         <v>0.85</v>
       </c>
       <c r="Y5">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1.85</v>
+      </c>
+      <c r="AB5">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AA5">
-        <v>1.97</v>
-      </c>
-      <c r="AB5">
-        <v>1.0900000000000001</v>
-      </c>
       <c r="AC5">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="AD5">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AE5">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="AF5">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="AG5">
         <v>2023</v>
@@ -1094,13 +1052,13 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>26.5</v>
+        <v>25.8</v>
       </c>
       <c r="D6">
-        <v>46.1</v>
+        <v>57.1</v>
       </c>
       <c r="E6">
         <v>34</v>
@@ -1115,76 +1073,76 @@
         <v>34</v>
       </c>
       <c r="I6">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="P6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>38.200000000000003</v>
+        <v>57.7</v>
       </c>
       <c r="R6">
-        <v>36.6</v>
+        <v>52.2</v>
       </c>
       <c r="S6">
-        <v>28.1</v>
+        <v>42.7</v>
       </c>
       <c r="T6">
-        <v>64.8</v>
+        <v>94.9</v>
       </c>
       <c r="U6">
-        <v>510</v>
+        <v>746</v>
       </c>
       <c r="V6">
-        <v>1217</v>
+        <v>1703</v>
       </c>
       <c r="W6">
-        <v>1.06</v>
+        <v>1.85</v>
       </c>
       <c r="X6">
-        <v>0.85</v>
+        <v>1.44</v>
       </c>
       <c r="Y6">
-        <v>1.91</v>
+        <v>3.29</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="AA6">
-        <v>1.85</v>
+        <v>3.09</v>
       </c>
       <c r="AB6">
-        <v>1.1200000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="AC6">
-        <v>0.83</v>
+        <v>1.26</v>
       </c>
       <c r="AD6">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="AE6">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AF6">
-        <v>1.9</v>
+        <v>2.79</v>
       </c>
       <c r="AG6">
         <v>2023</v>
@@ -1195,13 +1153,13 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>26.5</v>
+        <v>28.4</v>
       </c>
       <c r="D7">
-        <v>46.6</v>
+        <v>49.5</v>
       </c>
       <c r="E7">
         <v>34</v>
@@ -1216,76 +1174,76 @@
         <v>34</v>
       </c>
       <c r="I7">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M7">
         <v>2</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>37.9</v>
+        <v>45.8</v>
       </c>
       <c r="R7">
-        <v>34.799999999999997</v>
+        <v>44.3</v>
       </c>
       <c r="S7">
-        <v>28.9</v>
+        <v>33.1</v>
       </c>
       <c r="T7">
-        <v>63.6</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="U7">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="V7">
-        <v>1088</v>
+        <v>1263</v>
       </c>
       <c r="W7">
-        <v>0.76</v>
+        <v>1.29</v>
       </c>
       <c r="X7">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="Y7">
+        <v>2.09</v>
+      </c>
+      <c r="Z7">
+        <v>1.24</v>
+      </c>
+      <c r="AA7">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AB7">
         <v>1.35</v>
       </c>
-      <c r="Z7">
-        <v>0.71</v>
-      </c>
-      <c r="AA7">
-        <v>1.29</v>
-      </c>
-      <c r="AB7">
-        <v>1.1200000000000001</v>
-      </c>
       <c r="AC7">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="AD7">
-        <v>1.96</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="AE7">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="AF7">
-        <v>1.87</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AG7">
         <v>2023</v>
@@ -1296,13 +1254,13 @@
         <v>28</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="D8">
-        <v>57.1</v>
+        <v>48.8</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -1317,76 +1275,76 @@
         <v>34</v>
       </c>
       <c r="I8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J8">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>57.7</v>
+        <v>56.3</v>
       </c>
       <c r="R8">
-        <v>52.2</v>
+        <v>49.2</v>
       </c>
       <c r="S8">
-        <v>42.7</v>
+        <v>39.5</v>
       </c>
       <c r="T8">
-        <v>94.9</v>
+        <v>88.6</v>
       </c>
       <c r="U8">
-        <v>746</v>
+        <v>504</v>
       </c>
       <c r="V8">
-        <v>1703</v>
+        <v>1241</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="X8">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="Y8">
-        <v>3.29</v>
+        <v>2.68</v>
       </c>
       <c r="Z8">
+        <v>1.41</v>
+      </c>
+      <c r="AA8">
+        <v>2.44</v>
+      </c>
+      <c r="AB8">
         <v>1.65</v>
       </c>
-      <c r="AA8">
-        <v>3.09</v>
-      </c>
-      <c r="AB8">
-        <v>1.7</v>
-      </c>
       <c r="AC8">
-        <v>1.26</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="AD8">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="AE8">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AF8">
-        <v>2.79</v>
+        <v>2.61</v>
       </c>
       <c r="AG8">
         <v>2023</v>
@@ -1397,13 +1355,13 @@
         <v>29</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>28.4</v>
+        <v>26.2</v>
       </c>
       <c r="D9">
-        <v>49.5</v>
+        <v>54.6</v>
       </c>
       <c r="E9">
         <v>34</v>
@@ -1418,76 +1376,76 @@
         <v>34</v>
       </c>
       <c r="I9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>45.8</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="R9">
-        <v>44.3</v>
+        <v>33.6</v>
       </c>
       <c r="S9">
-        <v>33.1</v>
+        <v>24.9</v>
       </c>
       <c r="T9">
-        <v>77.400000000000006</v>
+        <v>58.5</v>
       </c>
       <c r="U9">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="V9">
-        <v>1263</v>
+        <v>1304</v>
       </c>
       <c r="W9">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="X9">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="Y9">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="Z9">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="AA9">
-        <v>2.0299999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="AB9">
-        <v>1.35</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.97</v>
+        <v>0.73</v>
       </c>
       <c r="AD9">
-        <v>2.3199999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="AE9">
-        <v>1.3</v>
+        <v>0.99</v>
       </c>
       <c r="AF9">
-        <v>2.2799999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="AG9">
         <v>2023</v>
@@ -1498,13 +1456,13 @@
         <v>30</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="D10">
-        <v>51.6</v>
+        <v>47.7</v>
       </c>
       <c r="E10">
         <v>34</v>
@@ -1519,76 +1477,76 @@
         <v>34</v>
       </c>
       <c r="I10">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>74</v>
+      </c>
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>95</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
       <c r="Q10">
-        <v>44.9</v>
+        <v>41.8</v>
       </c>
       <c r="R10">
-        <v>40.200000000000003</v>
+        <v>38.1</v>
       </c>
       <c r="S10">
-        <v>31.7</v>
+        <v>30.7</v>
       </c>
       <c r="T10">
-        <v>71.900000000000006</v>
+        <v>68.8</v>
       </c>
       <c r="U10">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="V10">
-        <v>1202</v>
+        <v>1123</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X10">
-        <v>1.06</v>
+        <v>0.68</v>
       </c>
       <c r="Y10">
-        <v>2.56</v>
+        <v>1.79</v>
       </c>
       <c r="Z10">
-        <v>1.32</v>
+        <v>0.97</v>
       </c>
       <c r="AA10">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="AB10">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AC10">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AD10">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AE10">
-        <v>1.18</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AF10">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AG10">
         <v>2023</v>
@@ -1599,13 +1557,13 @@
         <v>31</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>26.3</v>
+        <v>27.3</v>
       </c>
       <c r="D11">
-        <v>48.8</v>
+        <v>49.7</v>
       </c>
       <c r="E11">
         <v>34</v>
@@ -1620,76 +1578,76 @@
         <v>34</v>
       </c>
       <c r="I11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q11">
-        <v>56.3</v>
+        <v>42.5</v>
       </c>
       <c r="R11">
-        <v>49.2</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="S11">
-        <v>39.5</v>
+        <v>29</v>
       </c>
       <c r="T11">
-        <v>88.6</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="U11">
-        <v>504</v>
+        <v>669</v>
       </c>
       <c r="V11">
-        <v>1241</v>
+        <v>1308</v>
       </c>
       <c r="W11">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X11">
-        <v>1.03</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="Y11">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="Z11">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="AA11">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="AB11">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AC11">
-        <v>1.1599999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="AD11">
-        <v>2.82</v>
+        <v>2.1</v>
       </c>
       <c r="AE11">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AF11">
-        <v>2.61</v>
+        <v>2.04</v>
       </c>
       <c r="AG11">
         <v>2023</v>
@@ -1700,13 +1658,13 @@
         <v>32</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>25.8</v>
+        <v>23.8</v>
       </c>
       <c r="D12">
-        <v>48.8</v>
+        <v>46.7</v>
       </c>
       <c r="E12">
         <v>34</v>
@@ -1721,76 +1679,76 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>37.799999999999997</v>
+        <v>46.3</v>
       </c>
       <c r="R12">
-        <v>37.1</v>
+        <v>43.2</v>
       </c>
       <c r="S12">
-        <v>30.9</v>
+        <v>31.7</v>
       </c>
       <c r="T12">
-        <v>67.900000000000006</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="U12">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="V12">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="W12">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="Y12">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="Z12">
-        <v>1.18</v>
+        <v>0.94</v>
       </c>
       <c r="AA12">
-        <v>2.1800000000000002</v>
+        <v>1.65</v>
       </c>
       <c r="AB12">
-        <v>1.1100000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="AC12">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="AD12">
-        <v>2.02</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AE12">
-        <v>1.0900000000000001</v>
+        <v>1.27</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AG12">
         <v>2023</v>
@@ -1801,13 +1759,13 @@
         <v>33</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>26.2</v>
+        <v>24.3</v>
       </c>
       <c r="D13">
-        <v>54.6</v>
+        <v>52.6</v>
       </c>
       <c r="E13">
         <v>34</v>
@@ -1822,76 +1780,76 @@
         <v>34</v>
       </c>
       <c r="I13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L13">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>38.200000000000003</v>
+        <v>42</v>
       </c>
       <c r="R13">
-        <v>33.6</v>
+        <v>39.9</v>
       </c>
       <c r="S13">
-        <v>24.9</v>
+        <v>33</v>
       </c>
       <c r="T13">
-        <v>58.5</v>
+        <v>73</v>
       </c>
       <c r="U13">
-        <v>540</v>
+        <v>557</v>
       </c>
       <c r="V13">
-        <v>1304</v>
+        <v>1418</v>
       </c>
       <c r="W13">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="Y13">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="Z13">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="AA13">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="AB13">
-        <v>1.1200000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="AC13">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="AD13">
-        <v>1.86</v>
+        <v>2.21</v>
       </c>
       <c r="AE13">
-        <v>0.99</v>
+        <v>1.17</v>
       </c>
       <c r="AF13">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="AG13">
         <v>2023</v>
@@ -1902,13 +1860,13 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>27.4</v>
+        <v>26.5</v>
       </c>
       <c r="D14">
-        <v>55.2</v>
+        <v>50.4</v>
       </c>
       <c r="E14">
         <v>34</v>
@@ -1923,16 +1881,16 @@
         <v>34</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J14">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M14">
         <v>5</v>
@@ -1941,58 +1899,58 @@
         <v>5</v>
       </c>
       <c r="O14">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>51.2</v>
+        <v>42.1</v>
       </c>
       <c r="R14">
-        <v>47.3</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="S14">
-        <v>38.6</v>
+        <v>31.5</v>
       </c>
       <c r="T14">
-        <v>85.9</v>
+        <v>69.7</v>
       </c>
       <c r="U14">
-        <v>704</v>
+        <v>513</v>
       </c>
       <c r="V14">
-        <v>1547</v>
+        <v>1361</v>
       </c>
       <c r="W14">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="X14">
-        <v>1.0900000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="Y14">
-        <v>2.56</v>
+        <v>2.79</v>
       </c>
       <c r="Z14">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AA14">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="AB14">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="AC14">
-        <v>1.1299999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="AD14">
-        <v>2.64</v>
+        <v>2.16</v>
       </c>
       <c r="AE14">
-        <v>1.39</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AF14">
-        <v>2.5299999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="AG14">
         <v>2023</v>
@@ -2003,13 +1961,13 @@
         <v>35</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>27.5</v>
+        <v>26.7</v>
       </c>
       <c r="D15">
-        <v>51.2</v>
+        <v>46.1</v>
       </c>
       <c r="E15">
         <v>34</v>
@@ -2024,76 +1982,76 @@
         <v>34</v>
       </c>
       <c r="I15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K15">
+        <v>89</v>
+      </c>
+      <c r="L15">
+        <v>43</v>
+      </c>
+      <c r="M15">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
         <v>85</v>
       </c>
-      <c r="L15">
-        <v>46</v>
-      </c>
-      <c r="M15">
-        <v>7</v>
-      </c>
-      <c r="N15">
-        <v>9</v>
-      </c>
-      <c r="O15">
-        <v>73</v>
-      </c>
       <c r="P15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>55.6</v>
+        <v>49.4</v>
       </c>
       <c r="R15">
-        <v>48.5</v>
+        <v>41</v>
       </c>
       <c r="S15">
-        <v>38.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="T15">
-        <v>87.1</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="U15">
-        <v>692</v>
+        <v>452</v>
       </c>
       <c r="V15">
-        <v>1543</v>
+        <v>1197</v>
       </c>
       <c r="W15">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="X15">
-        <v>0.94</v>
+        <v>1.03</v>
       </c>
       <c r="Y15">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="Z15">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AA15">
         <v>2.29</v>
       </c>
       <c r="AB15">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="AC15">
-        <v>1.1299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AD15">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="AE15">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AF15">
-        <v>2.56</v>
+        <v>2.15</v>
       </c>
       <c r="AG15">
         <v>2023</v>
@@ -2104,13 +2062,13 @@
         <v>36</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>47.1</v>
+        <v>50.1</v>
       </c>
       <c r="E16">
         <v>34</v>
@@ -2125,76 +2083,76 @@
         <v>34</v>
       </c>
       <c r="I16">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J16">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>53.4</v>
+        <v>31.3</v>
       </c>
       <c r="R16">
-        <v>49.4</v>
+        <v>30.5</v>
       </c>
       <c r="S16">
-        <v>38.4</v>
+        <v>24.2</v>
       </c>
       <c r="T16">
-        <v>87.8</v>
+        <v>54.7</v>
       </c>
       <c r="U16">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="V16">
-        <v>1405</v>
+        <v>1200</v>
       </c>
       <c r="W16">
-        <v>1.26</v>
+        <v>0.76</v>
       </c>
       <c r="X16">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="Y16">
-        <v>1.94</v>
+        <v>1.35</v>
       </c>
       <c r="Z16">
-        <v>1.1499999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="AA16">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="AB16">
-        <v>1.57</v>
+        <v>0.92</v>
       </c>
       <c r="AC16">
-        <v>1.1299999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AD16">
-        <v>2.7</v>
+        <v>1.63</v>
       </c>
       <c r="AE16">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
       <c r="AF16">
-        <v>2.58</v>
+        <v>1.61</v>
       </c>
       <c r="AG16">
         <v>2023</v>
@@ -2202,747 +2160,747 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>29.2</v>
+        <v>27.6</v>
       </c>
       <c r="D17">
-        <v>47.7</v>
+        <v>46.7</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>374</v>
+        <v>33</v>
       </c>
       <c r="G17">
-        <v>3060</v>
+        <v>270</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>41.8</v>
+        <v>4.5</v>
       </c>
       <c r="R17">
-        <v>38.1</v>
+        <v>3</v>
       </c>
       <c r="S17">
-        <v>30.7</v>
+        <v>2.7</v>
       </c>
       <c r="T17">
-        <v>68.8</v>
+        <v>5.7</v>
       </c>
       <c r="U17">
-        <v>441</v>
+        <v>62</v>
       </c>
       <c r="V17">
-        <v>1123</v>
+        <v>103</v>
       </c>
       <c r="W17">
-        <v>1.1200000000000001</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>1.79</v>
+        <v>3</v>
       </c>
       <c r="Z17">
-        <v>0.97</v>
+        <v>1.33</v>
       </c>
       <c r="AA17">
-        <v>1.65</v>
+        <v>2.33</v>
       </c>
       <c r="AB17">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="AC17">
         <v>0.9</v>
       </c>
       <c r="AD17">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
       <c r="AE17">
-        <v>1.1200000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AF17">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="AG17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>27.3</v>
+        <v>25.7</v>
       </c>
       <c r="D18">
-        <v>49.7</v>
+        <v>41</v>
       </c>
       <c r="E18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>7.4</v>
+      </c>
+      <c r="R18">
+        <v>5.9</v>
+      </c>
+      <c r="S18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="T18">
+        <v>10.7</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18">
+        <v>94</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <v>1.5</v>
+      </c>
+      <c r="Y18">
+        <v>3.5</v>
+      </c>
+      <c r="Z18">
+        <v>1.5</v>
+      </c>
+      <c r="AA18">
         <v>3</v>
       </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18">
-        <v>49</v>
-      </c>
-      <c r="P18">
-        <v>2</v>
-      </c>
-      <c r="Q18">
-        <v>42.5</v>
-      </c>
-      <c r="R18">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="S18">
-        <v>29</v>
-      </c>
-      <c r="T18">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="U18">
-        <v>669</v>
-      </c>
-      <c r="V18">
-        <v>1308</v>
-      </c>
-      <c r="W18">
-        <v>1.62</v>
-      </c>
-      <c r="X18">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="Y18">
-        <v>2.71</v>
-      </c>
-      <c r="Z18">
-        <v>1.53</v>
-      </c>
-      <c r="AA18">
-        <v>2.62</v>
-      </c>
       <c r="AB18">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="AC18">
-        <v>0.85</v>
+        <v>1.22</v>
       </c>
       <c r="AD18">
-        <v>2.1</v>
+        <v>3.07</v>
       </c>
       <c r="AE18">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="AF18">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="AG18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>23.8</v>
+        <v>28.6</v>
       </c>
       <c r="D19">
-        <v>46.7</v>
+        <v>44.5</v>
       </c>
       <c r="E19">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G19">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>46.3</v>
+        <v>5.4</v>
       </c>
       <c r="R19">
-        <v>43.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S19">
-        <v>31.7</v>
+        <v>2.7</v>
       </c>
       <c r="T19">
-        <v>74.900000000000006</v>
+        <v>7.2</v>
       </c>
       <c r="U19">
-        <v>553</v>
+        <v>52</v>
       </c>
       <c r="V19">
-        <v>1159</v>
+        <v>142</v>
       </c>
       <c r="W19">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="X19">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="Y19">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="Z19">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="AA19">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="AB19">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AC19">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AD19">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>1.27</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AF19">
-        <v>2.2000000000000002</v>
+        <v>1.81</v>
       </c>
       <c r="AG19">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>24.3</v>
+        <v>27.3</v>
       </c>
       <c r="D20">
-        <v>52.6</v>
+        <v>49.8</v>
       </c>
       <c r="E20">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G20">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K20">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6.7</v>
+      </c>
+      <c r="R20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T20">
+        <v>9.5</v>
+      </c>
+      <c r="U20">
+        <v>63</v>
+      </c>
+      <c r="V20">
+        <v>143</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <v>1.5</v>
+      </c>
+      <c r="Y20">
+        <v>3.5</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
         <v>3</v>
       </c>
-      <c r="O20">
-        <v>79</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>42</v>
-      </c>
-      <c r="R20">
-        <v>39.9</v>
-      </c>
-      <c r="S20">
-        <v>33</v>
-      </c>
-      <c r="T20">
-        <v>73</v>
-      </c>
-      <c r="U20">
-        <v>557</v>
-      </c>
-      <c r="V20">
-        <v>1418</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0.76</v>
-      </c>
-      <c r="Y20">
-        <v>1.76</v>
-      </c>
-      <c r="Z20">
-        <v>0.97</v>
-      </c>
-      <c r="AA20">
-        <v>1.74</v>
-      </c>
       <c r="AB20">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="AC20">
-        <v>0.97</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD20">
-        <v>2.21</v>
+        <v>2.76</v>
       </c>
       <c r="AE20">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AF20">
-        <v>2.15</v>
+        <v>2.37</v>
       </c>
       <c r="AG20">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="D21">
-        <v>50.4</v>
+        <v>55.3</v>
       </c>
       <c r="E21">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G21">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="J21">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K21">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="L21">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>42.1</v>
+        <v>6.6</v>
       </c>
       <c r="R21">
-        <v>38.200000000000003</v>
+        <v>5.8</v>
       </c>
       <c r="S21">
-        <v>31.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="T21">
-        <v>69.7</v>
+        <v>10.7</v>
       </c>
       <c r="U21">
-        <v>513</v>
+        <v>83</v>
       </c>
       <c r="V21">
-        <v>1361</v>
+        <v>192</v>
       </c>
       <c r="W21">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="X21">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="Y21">
-        <v>2.79</v>
+        <v>3</v>
       </c>
       <c r="Z21">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AA21">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AB21">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="AC21">
-        <v>0.93</v>
+        <v>1.22</v>
       </c>
       <c r="AD21">
-        <v>2.16</v>
+        <v>2.87</v>
       </c>
       <c r="AE21">
-        <v>1.1200000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="AF21">
-        <v>2.0499999999999998</v>
+        <v>2.67</v>
       </c>
       <c r="AG21">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="D22">
-        <v>46.1</v>
+        <v>50.3</v>
       </c>
       <c r="E22">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G22">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>49.4</v>
+        <v>8.5</v>
       </c>
       <c r="R22">
-        <v>41</v>
+        <v>7.7</v>
       </c>
       <c r="S22">
-        <v>32.200000000000003</v>
+        <v>5.7</v>
       </c>
       <c r="T22">
-        <v>73.099999999999994</v>
+        <v>13.4</v>
       </c>
       <c r="U22">
-        <v>452</v>
+        <v>52</v>
       </c>
       <c r="V22">
-        <v>1197</v>
+        <v>196</v>
       </c>
       <c r="W22">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="Y22">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="Z22">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AA22">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AB22">
-        <v>1.45</v>
+        <v>2.12</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>1.43</v>
       </c>
       <c r="AD22">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="AE22">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
       <c r="AF22">
-        <v>2.15</v>
+        <v>3.35</v>
       </c>
       <c r="AG22">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C23">
-        <v>27.8</v>
+        <v>26.8</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>49.5</v>
       </c>
       <c r="E23">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>41.2</v>
+        <v>4.5</v>
       </c>
       <c r="R23">
-        <v>40.700000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="S23">
-        <v>29.4</v>
+        <v>3.5</v>
       </c>
       <c r="T23">
-        <v>70.099999999999994</v>
+        <v>8</v>
       </c>
       <c r="U23">
-        <v>511</v>
+        <v>65</v>
       </c>
       <c r="V23">
-        <v>1247</v>
+        <v>134</v>
       </c>
       <c r="W23">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="X23">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="Z23">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AA23">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="AB23">
-        <v>1.21</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AC23">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="AD23">
-        <v>2.08</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AE23">
-        <v>1.2</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AF23">
-        <v>2.06</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AG23">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>26.4</v>
+        <v>28.4</v>
       </c>
       <c r="D24">
-        <v>49.3</v>
+        <v>55.4</v>
       </c>
       <c r="E24">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>374</v>
+        <v>55</v>
       </c>
       <c r="G24">
-        <v>3060</v>
+        <v>450</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="J24">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K24">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2951,667 +2909,768 @@
         <v>0</v>
       </c>
       <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>9.9</v>
+      </c>
+      <c r="R24">
+        <v>9.9</v>
+      </c>
+      <c r="S24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T24">
+        <v>18.2</v>
+      </c>
+      <c r="U24">
         <v>75</v>
       </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>43.3</v>
-      </c>
-      <c r="R24">
-        <v>43.3</v>
-      </c>
-      <c r="S24">
-        <v>33.9</v>
-      </c>
-      <c r="T24">
-        <v>77.2</v>
-      </c>
-      <c r="U24">
-        <v>562</v>
-      </c>
       <c r="V24">
-        <v>1324</v>
+        <v>211</v>
       </c>
       <c r="W24">
-        <v>1.41</v>
+        <v>2.6</v>
       </c>
       <c r="X24">
-        <v>1.06</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Y24">
-        <v>2.4700000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="Z24">
-        <v>1.41</v>
+        <v>2.6</v>
       </c>
       <c r="AA24">
-        <v>2.4700000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="AB24">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>1.66</v>
       </c>
       <c r="AD24">
-        <v>2.27</v>
+        <v>3.64</v>
       </c>
       <c r="AE24">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="AF24">
-        <v>2.27</v>
+        <v>3.64</v>
       </c>
       <c r="AG24">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>28.8</v>
       </c>
       <c r="D25">
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G25">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
         <v>6</v>
       </c>
-      <c r="O25">
-        <v>73</v>
-      </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>4</v>
       </c>
-      <c r="Q25">
-        <v>44.3</v>
-      </c>
       <c r="R25">
-        <v>39.5</v>
+        <v>2.4</v>
       </c>
       <c r="S25">
-        <v>31</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>70.5</v>
+        <v>4.3</v>
       </c>
       <c r="U25">
-        <v>555</v>
+        <v>50</v>
       </c>
       <c r="V25">
-        <v>1282</v>
+        <v>115</v>
       </c>
       <c r="W25">
-        <v>1.1200000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="Y25">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="Z25">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="AB25">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="AD25">
-        <v>2.21</v>
+        <v>1.46</v>
       </c>
       <c r="AE25">
-        <v>1.1599999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="AF25">
-        <v>2.0699999999999998</v>
+        <v>1.07</v>
       </c>
       <c r="AG25">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C26">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="D26">
-        <v>54.2</v>
+        <v>56.5</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G26">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="P26">
         <v>2</v>
       </c>
       <c r="Q26">
-        <v>48.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="R26">
-        <v>47.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S26">
-        <v>35.6</v>
+        <v>3.1</v>
       </c>
       <c r="T26">
-        <v>82.9</v>
+        <v>7.7</v>
       </c>
       <c r="U26">
-        <v>559</v>
+        <v>69</v>
       </c>
       <c r="V26">
-        <v>1523</v>
+        <v>197</v>
       </c>
       <c r="W26">
-        <v>1.1200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="Y26">
-        <v>1.97</v>
+        <v>1.25</v>
       </c>
       <c r="Z26">
-        <v>1.0900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA26">
-        <v>1.94</v>
+        <v>1.25</v>
       </c>
       <c r="AB26">
-        <v>1.41</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.05</v>
+        <v>0.78</v>
       </c>
       <c r="AD26">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="AE26">
-        <v>1.39</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AF26">
-        <v>2.44</v>
+        <v>1.91</v>
       </c>
       <c r="AG26">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>28.6</v>
+        <v>24.9</v>
       </c>
       <c r="D27">
-        <v>52.1</v>
+        <v>45</v>
       </c>
       <c r="E27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G27">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>4.7</v>
+      </c>
+      <c r="R27">
+        <v>3.9</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27">
+        <v>6.9</v>
+      </c>
+      <c r="U27">
         <v>43</v>
       </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
-      <c r="O27">
-        <v>58</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-      <c r="Q27">
-        <v>41.1</v>
-      </c>
-      <c r="R27">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="S27">
-        <v>28.7</v>
-      </c>
-      <c r="T27">
-        <v>65</v>
-      </c>
-      <c r="U27">
-        <v>706</v>
-      </c>
       <c r="V27">
-        <v>1471</v>
+        <v>125</v>
       </c>
       <c r="W27">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="Z27">
-        <v>1.26</v>
+        <v>0.75</v>
       </c>
       <c r="AA27">
-        <v>2.2400000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="AB27">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AC27">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="AD27">
-        <v>2.0499999999999998</v>
+        <v>1.91</v>
       </c>
       <c r="AE27">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="AF27">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AG27">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>25.7</v>
+        <v>24.4</v>
       </c>
       <c r="D28">
-        <v>44.2</v>
+        <v>53.3</v>
       </c>
       <c r="E28">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="P28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>42.6</v>
+        <v>3.7</v>
       </c>
       <c r="R28">
-        <v>38.700000000000003</v>
+        <v>3.7</v>
       </c>
       <c r="S28">
-        <v>26.9</v>
+        <v>2.9</v>
       </c>
       <c r="T28">
-        <v>65.599999999999994</v>
+        <v>6.6</v>
       </c>
       <c r="U28">
-        <v>518</v>
+        <v>51</v>
       </c>
       <c r="V28">
-        <v>1160</v>
+        <v>160</v>
       </c>
       <c r="W28">
-        <v>1.74</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
+        <v>0.25</v>
+      </c>
+      <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Y28">
-        <v>2.74</v>
-      </c>
       <c r="Z28">
-        <v>1.59</v>
+        <v>0.75</v>
       </c>
       <c r="AA28">
-        <v>2.59</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1.25</v>
+        <v>0.92</v>
       </c>
       <c r="AC28">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="AD28">
-        <v>2.0499999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="AE28">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AF28">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AG28">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="D29">
-        <v>50.1</v>
+        <v>57.5</v>
       </c>
       <c r="E29">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>374</v>
+        <v>44</v>
       </c>
       <c r="G29">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>6.3</v>
+      </c>
+      <c r="R29">
+        <v>6.3</v>
+      </c>
+      <c r="S29">
+        <v>5.5</v>
+      </c>
+      <c r="T29">
+        <v>11.8</v>
+      </c>
+      <c r="U29">
+        <v>80</v>
+      </c>
+      <c r="V29">
+        <v>233</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
         <v>1</v>
       </c>
-      <c r="N29">
+      <c r="Z29">
+        <v>0.5</v>
+      </c>
+      <c r="AA29">
         <v>1</v>
       </c>
-      <c r="O29">
-        <v>51</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <v>31.3</v>
-      </c>
-      <c r="R29">
-        <v>30.5</v>
-      </c>
-      <c r="S29">
-        <v>24.2</v>
-      </c>
-      <c r="T29">
-        <v>54.7</v>
-      </c>
-      <c r="U29">
-        <v>533</v>
-      </c>
-      <c r="V29">
-        <v>1200</v>
-      </c>
-      <c r="W29">
-        <v>0.76</v>
-      </c>
-      <c r="X29">
-        <v>0.59</v>
-      </c>
-      <c r="Y29">
-        <v>1.35</v>
-      </c>
-      <c r="Z29">
-        <v>0.74</v>
-      </c>
-      <c r="AA29">
-        <v>1.32</v>
-      </c>
       <c r="AB29">
-        <v>0.92</v>
+        <v>1.57</v>
       </c>
       <c r="AC29">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="AD29">
-        <v>1.63</v>
+        <v>2.95</v>
       </c>
       <c r="AE29">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="AF29">
-        <v>1.61</v>
+        <v>2.95</v>
       </c>
       <c r="AG29">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>47.3</v>
       </c>
       <c r="E30">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>374</v>
+        <v>33</v>
       </c>
       <c r="G30">
-        <v>3060</v>
+        <v>270</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>9</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30">
+        <v>4.3</v>
+      </c>
+      <c r="S30">
+        <v>3.7</v>
+      </c>
+      <c r="T30">
         <v>8</v>
       </c>
-      <c r="O30">
-        <v>66</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>54.6</v>
-      </c>
-      <c r="R30">
-        <v>48.3</v>
-      </c>
-      <c r="S30">
-        <v>40</v>
-      </c>
-      <c r="T30">
-        <v>88.3</v>
-      </c>
       <c r="U30">
-        <v>532</v>
+        <v>48</v>
       </c>
       <c r="V30">
-        <v>1387</v>
+        <v>116</v>
       </c>
       <c r="W30">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="Y30">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="Z30">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA30">
-        <v>2.3199999999999998</v>
+        <v>2</v>
       </c>
       <c r="AB30">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AC30">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AD30">
-        <v>2.78</v>
+        <v>2.93</v>
       </c>
       <c r="AE30">
         <v>1.42</v>
       </c>
       <c r="AF30">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AG30">
-        <v>2023</v>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>28.2</v>
+      </c>
+      <c r="D31">
+        <v>47.8</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>44</v>
+      </c>
+      <c r="G31">
+        <v>360</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>2.4</v>
+      </c>
+      <c r="T31">
+        <v>5.4</v>
+      </c>
+      <c r="U31">
+        <v>49</v>
+      </c>
+      <c r="V31">
+        <v>137</v>
+      </c>
+      <c r="W31">
+        <v>0.75</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31">
+        <v>1.25</v>
+      </c>
+      <c r="Z31">
+        <v>0.75</v>
+      </c>
+      <c r="AA31">
+        <v>1.25</v>
+      </c>
+      <c r="AB31">
+        <v>0.75</v>
+      </c>
+      <c r="AC31">
+        <v>0.61</v>
+      </c>
+      <c r="AD31">
+        <v>1.35</v>
+      </c>
+      <c r="AE31">
+        <v>0.75</v>
+      </c>
+      <c r="AF31">
+        <v>1.35</v>
+      </c>
+      <c r="AG31">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
